--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -58,9 +58,6 @@
     <t>單位 UNIT</t>
   </si>
   <si>
-    <t>收件統編</t>
-  </si>
-  <si>
     <t>寄件人或公司</t>
   </si>
   <si>
@@ -152,10 +149,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_GETNO}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_NEWSENDNAME}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -165,14 +158,6 @@
   </si>
   <si>
     <t>${table:data.IL_GETADDRESS}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件電話</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_GETTEL}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -200,28 +185,67 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
+    <t>${table:data.IL_CTN}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_BAGNO}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.CUSTOMS_CLEARANCE}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_TAX2}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>${table:data.IL_TAX</t>
+      <t>${table:data.IL_</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>}</t>
+      <t>EX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>NO}</t>
     </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_CTN}</t>
+    <r>
+      <t>${table:data.IL_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>EX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>TEL}</t>
+    </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_BAGNO}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.CUSTOMS_CLEARANCE}</t>
+    <t>收件者統編</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件電話</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1555,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -1616,14 +1640,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="10"/>
@@ -1651,14 +1675,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1672,13 +1696,13 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>5</v>
@@ -1699,81 +1723,81 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>14</v>
-      </c>
       <c r="N4" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Q4" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="G5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="Q5" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -79,6 +79,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>關條碼</t>
     </r>
@@ -92,6 +93,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>單號</t>
     </r>
@@ -172,6 +174,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>IL_FINALCOST</t>
     </r>
@@ -179,6 +182,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -187,14 +191,6 @@
   <si>
     <t>${table:data.IL_CTN}</t>
     <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_BAGNO}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.CUSTOMS_CLEARANCE}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>${table:data.IL_TAX2}</t>
@@ -208,6 +204,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>EX</t>
     </r>
@@ -215,6 +212,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>NO}</t>
     </r>
@@ -228,6 +226,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>EX</t>
     </r>
@@ -235,6 +234,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>TEL}</t>
     </r>
@@ -247,6 +247,32 @@
   <si>
     <t>收件電話</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_G1}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${table:data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IL_BAGNOEX_NOREPEAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -281,28 +307,33 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -314,6 +345,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -326,65 +358,77 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -402,6 +446,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -885,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -978,6 +1023,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -1723,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>11</v>
@@ -1735,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>17</v>
@@ -1749,10 +1797,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
@@ -1776,7 +1824,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>30</v>
@@ -1788,7 +1836,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>33</v>
@@ -1797,7 +1845,7 @@
         <v>34</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -147,10 +147,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_UNIT}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_NEWSENDNAME}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -272,6 +268,10 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_NEWUNIT}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -1019,13 +1019,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -1654,50 +1654,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1722,10 +1722,10 @@
       <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>11</v>
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>17</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
@@ -1809,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>26</v>
@@ -1821,31 +1821,31 @@
         <v>28</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="L5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>34</v>
-      </c>
       <c r="Q5" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -79,7 +79,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>關條碼</t>
     </r>
@@ -93,7 +92,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>單號</t>
     </r>
@@ -139,23 +137,11 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_WEIGHT_NEW}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_NEWPCS}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>${table:data.IL_NEWSENDNAME}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_GETNAME}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_GETADDRESS}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -170,9 +156,132 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>IL_FINALCOST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_CTN}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_TAX2}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${table:data.IL_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>EX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>NO}</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${table:data.IL_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>EX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>TEL}</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件者統編</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件電話</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_G1}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${table:data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>IL_BAGNOEX_NOREPEAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_NEWUNIT}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${table:data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>IL_WEIGHT_NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${table:data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>IL_GETNAME_NEW</t>
     </r>
     <r>
       <rPr>
@@ -185,80 +294,15 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_CTN}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_TAX2}</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.IL_</t>
+    <r>
+      <t>${table:data.</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
-      <t>EX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NO}</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.IL_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TEL}</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件者統編</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件電話</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_G1}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${table:data.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IL_BAGNOEX_NOREPEAT</t>
+      <t>IL_GETADDRESS_NEW</t>
     </r>
     <r>
       <rPr>
@@ -268,10 +312,6 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_NEWUNIT}</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -307,33 +347,28 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -345,7 +380,6 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -358,77 +392,65 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -446,7 +468,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1627,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -1771,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>11</v>
@@ -1783,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>17</v>
@@ -1797,10 +1818,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
@@ -1809,43 +1830,43 @@
         <v>25</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="I5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="L5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="30" t="s">
+      <c r="N5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="P5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="30" t="s">
+      <c r="Q5" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -287,7 +287,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -308,7 +307,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -1104,7 +1102,964 @@
     <cellStyle name="警告文本" xfId="41"/>
     <cellStyle name="쉼표 [0] 10" xfId="42"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="167">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1648,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -1880,131 +2835,139 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="67" priority="33">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="66" priority="34">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="64" priority="32">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="63" priority="29">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="62" priority="30">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="58" priority="26">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="57" priority="23">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="56" priority="24">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="55" priority="21">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="53" priority="19">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="51" priority="17">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="50" priority="18">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="49" priority="15">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="46" priority="14">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="42" priority="10">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$S5="普特貨"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A2000">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>$A5="X3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="2">
+      <formula>$A5="G1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.11944444444444445" right="0.20972222222222223" top="0.12986111111111112" bottom="0" header="0.15902777777777777" footer="0.13958333333333334"/>

--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10350" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10356" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">報機明細!$A$4:$Q$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -197,26 +197,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>${table:data.IL_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>EX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>TEL}</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>收件者統編</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -312,11 +292,15 @@
     </r>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>${table:data.IL_GETTEL_EX}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1102,14 +1086,7 @@
     <cellStyle name="警告文本" xfId="41"/>
     <cellStyle name="쉼표 [0] 10" xfId="42"/>
   </cellStyles>
-  <dxfs count="167">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1123,224 +1100,245 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1586,13 +1584,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -1605,458 +1596,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2590,7 +2130,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2603,28 +2143,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="7" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="5" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
     <col min="11" max="11" width="11" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="58.25" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="58.19921875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
@@ -2747,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>11</v>
@@ -2759,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="29" t="s">
         <v>17</v>
@@ -2773,10 +2313,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
@@ -2791,13 +2331,13 @@
         <v>26</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>33</v>
@@ -2806,13 +2346,13 @@
         <v>28</v>
       </c>
       <c r="L5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="N5" s="31" t="s">
         <v>42</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>34</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>29</v>
@@ -2835,139 +2375,144 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="67" priority="33">
+    <cfRule type="expression" dxfId="69" priority="34">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="34">
+    <cfRule type="expression" dxfId="68" priority="35">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="65" priority="31">
+    <cfRule type="expression" dxfId="67" priority="32">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="66" priority="33">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="63" priority="29">
+    <cfRule type="expression" dxfId="65" priority="30">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="30">
+    <cfRule type="expression" dxfId="64" priority="31">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="63" priority="28">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="62" priority="29">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="61" priority="26">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="26">
+    <cfRule type="expression" dxfId="60" priority="27">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="59" priority="24">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="58" priority="25">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="55" priority="21">
+    <cfRule type="expression" dxfId="57" priority="22">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="22">
+    <cfRule type="expression" dxfId="56" priority="23">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="53" priority="19">
+    <cfRule type="expression" dxfId="55" priority="20">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="54" priority="21">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="51" priority="17">
+    <cfRule type="expression" dxfId="53" priority="18">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="18">
+    <cfRule type="expression" dxfId="52" priority="19">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="49" priority="15">
+    <cfRule type="expression" dxfId="51" priority="16">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="47" priority="13">
+    <cfRule type="expression" dxfId="49" priority="14">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14">
+    <cfRule type="expression" dxfId="48" priority="15">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="46" priority="13">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="45" priority="10">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="10">
+    <cfRule type="expression" dxfId="44" priority="11">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="38" priority="5">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A2000">
+    <cfRule type="expression" dxfId="37" priority="2">
+      <formula>$A5="X3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="3">
+      <formula>$A5="G1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N8000">
     <cfRule type="expression" dxfId="35" priority="1">
-      <formula>$A5="X3"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
-      <formula>$A5="G1"</formula>
+      <formula>LEN($N5)&gt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.11944444444444445" right="0.20972222222222223" top="0.12986111111111112" bottom="0" header="0.15902777777777777" footer="0.13958333333333334"/>

--- a/templates/(舊報機單)轉出關貿格式範例.xlsx
+++ b/templates/(舊報機單)轉出關貿格式範例.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\東風\原始碼\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B0E44-3107-4C5D-A001-6E3B3D43A555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10356" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
-    <sheet name="報機明細" sheetId="1" r:id="rId2"/>
+    <sheet name="報機明細" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">報機明細!$A$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">報機明細!$A$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1033,553 +1033,64 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 4" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="7"/>
-    <cellStyle name="3232" xfId="8"/>
-    <cellStyle name="3232 4" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="21"/>
-    <cellStyle name="ColLevel_0" xfId="22"/>
-    <cellStyle name="RowLevel_0" xfId="23"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="3232" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="3232 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ColLevel_0" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="RowLevel_0" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 4" xfId="24"/>
-    <cellStyle name="计算" xfId="50"/>
-    <cellStyle name="汇总" xfId="49"/>
+    <cellStyle name="一般 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="计算" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="汇总" xfId="49" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="好" xfId="25" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="26"/>
-    <cellStyle name="标题" xfId="43"/>
-    <cellStyle name="标题 1" xfId="44"/>
-    <cellStyle name="标题 2" xfId="45"/>
-    <cellStyle name="标题 3" xfId="46"/>
-    <cellStyle name="标题 4" xfId="47"/>
-    <cellStyle name="差" xfId="27"/>
-    <cellStyle name="样式 1" xfId="28"/>
-    <cellStyle name="适中" xfId="29"/>
-    <cellStyle name="常规_七逸重量總表" xfId="30"/>
-    <cellStyle name="检查单元格" xfId="48"/>
-    <cellStyle name="强调文字颜色 1" xfId="31"/>
-    <cellStyle name="强调文字颜色 2" xfId="32"/>
-    <cellStyle name="强调文字颜色 3" xfId="33"/>
-    <cellStyle name="强调文字颜色 4" xfId="34"/>
-    <cellStyle name="强调文字颜色 5" xfId="35"/>
-    <cellStyle name="强调文字颜色 6" xfId="36"/>
-    <cellStyle name="链接单元格" xfId="51"/>
-    <cellStyle name="解释性文本" xfId="37"/>
-    <cellStyle name="输入" xfId="38"/>
-    <cellStyle name="输出" xfId="39"/>
-    <cellStyle name="樣式 1" xfId="40"/>
-    <cellStyle name="警告文本" xfId="41"/>
-    <cellStyle name="쉼표 [0] 10" xfId="42"/>
+    <cellStyle name="注释" xfId="26" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="标题" xfId="43" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="标题 1" xfId="44" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="标题 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="标题 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="标题 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="差" xfId="27" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="样式 1" xfId="28" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="适中" xfId="29" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规_七逸重量總表" xfId="30" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="检查单元格" xfId="48" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="强调文字颜色 1" xfId="31" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="34" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="35" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="36" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="链接单元格" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="解释性文本" xfId="37" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="输入" xfId="38" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输出" xfId="39" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="樣式 1" xfId="40" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="警告文本" xfId="41" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="쉼표 [0] 10" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1913,6 +1424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1948,6 +1476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2123,24 +1668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2365,7 +1894,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Z4"/>
+  <autoFilter ref="A4:Z4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="O1:Z1"/>
@@ -2375,143 +1904,143 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="69" priority="34">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="35">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="67" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="65" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="63" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="61" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="59" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="57" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="55" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="53" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="51" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="49" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$T5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$T5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A2000">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A5="X3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$A5="G1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N8000">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($N5)&gt;10</formula>
     </cfRule>
   </conditionalFormatting>
